--- a/data/trans_orig/P34_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>210491</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>189471</v>
+        <v>186955</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>235222</v>
+        <v>231810</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.453002609669905</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.40776489011371</v>
+        <v>0.4023491781651066</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5062260388745672</v>
+        <v>0.49888380687365</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -765,19 +765,19 @@
         <v>115617</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99121</v>
+        <v>100265</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132443</v>
+        <v>134218</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3808305947570432</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3264949809340836</v>
+        <v>0.3302614458990791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.436252052026402</v>
+        <v>0.4421000367821917</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>314</v>
@@ -786,19 +786,19 @@
         <v>326108</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>298166</v>
+        <v>296232</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>354311</v>
+        <v>351996</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4244821547301862</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3881104664895157</v>
+        <v>0.3855928289935868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.461192446738564</v>
+        <v>0.4581794535570305</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>254167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>229436</v>
+        <v>232848</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>275187</v>
+        <v>277703</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.546997390330095</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4937739611254329</v>
+        <v>0.5011161931263498</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.59223510988629</v>
+        <v>0.5976508218348934</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -836,19 +836,19 @@
         <v>187975</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>171149</v>
+        <v>169374</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204471</v>
+        <v>203327</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6191694052429568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5637479479735981</v>
+        <v>0.5578999632178083</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6735050190659164</v>
+        <v>0.6697385541009214</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>428</v>
@@ -857,19 +857,19 @@
         <v>442142</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>413939</v>
+        <v>416254</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>470084</v>
+        <v>472018</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5755178452698138</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.538807553261436</v>
+        <v>0.5418205464429693</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6118895335104844</v>
+        <v>0.6144071710064131</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>192476</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172766</v>
+        <v>171806</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>212807</v>
+        <v>211702</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5273179778146327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4733206730760817</v>
+        <v>0.4706890572425869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5830177881852374</v>
+        <v>0.5799908010008369</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>191</v>
@@ -982,19 +982,19 @@
         <v>197788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>180366</v>
+        <v>178097</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216793</v>
+        <v>215981</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5333400382505504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4863610609116272</v>
+        <v>0.4802443103033456</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5845875747980676</v>
+        <v>0.5823987308336153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>377</v>
@@ -1003,19 +1003,19 @@
         <v>390263</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>363176</v>
+        <v>362939</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>416502</v>
+        <v>418035</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5303528983008888</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4935427565967415</v>
+        <v>0.4932204467997164</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.566010721743008</v>
+        <v>0.5680934412715154</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>172533</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>152202</v>
+        <v>153307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>192243</v>
+        <v>193203</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4726820221853672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4169822118147626</v>
+        <v>0.4200091989991631</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5266793269239182</v>
+        <v>0.5293109427574131</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>171</v>
@@ -1053,19 +1053,19 @@
         <v>173059</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>154054</v>
+        <v>154866</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>190481</v>
+        <v>192750</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4666599617494496</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4154124252019326</v>
+        <v>0.4176012691663848</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5136389390883729</v>
+        <v>0.5197556896966544</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>333</v>
@@ -1074,19 +1074,19 @@
         <v>345593</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>319354</v>
+        <v>317821</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>372680</v>
+        <v>372917</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4696471016991112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.433989278256992</v>
+        <v>0.4319065587284846</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.506457243403258</v>
+        <v>0.5067795532002836</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>115119</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97662</v>
+        <v>97859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133327</v>
+        <v>136308</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2150623658707644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1824486836635039</v>
+        <v>0.1828181575718124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.249077942390289</v>
+        <v>0.2546471195109036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1199,19 +1199,19 @@
         <v>34350</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24478</v>
+        <v>24130</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45324</v>
+        <v>45414</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.206163391437099</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1469138118495429</v>
+        <v>0.1448220199727747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2720303307707922</v>
+        <v>0.2725692629048705</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>151</v>
@@ -1220,19 +1220,19 @@
         <v>149469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129078</v>
+        <v>128676</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>171624</v>
+        <v>171466</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2129499493246853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1838978508389923</v>
+        <v>0.18332609770276</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2445146720588665</v>
+        <v>0.2442889758164231</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>420164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>401956</v>
+        <v>398975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>437621</v>
+        <v>437424</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7849376341292356</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7509220576097109</v>
+        <v>0.7453528804890965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8175513163364958</v>
+        <v>0.8171818424281876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>129</v>
@@ -1270,19 +1270,19 @@
         <v>132265</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121291</v>
+        <v>121201</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142137</v>
+        <v>142485</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7938366085629009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7279696692292078</v>
+        <v>0.7274307370951294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8530861881504571</v>
+        <v>0.8551779800272251</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>537</v>
@@ -1291,19 +1291,19 @@
         <v>552429</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>530274</v>
+        <v>530432</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>572820</v>
+        <v>573222</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7870500506753146</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7554853279411334</v>
+        <v>0.7557110241835769</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8161021491610077</v>
+        <v>0.81667390229724</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>404515</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>372512</v>
+        <v>371793</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>436481</v>
+        <v>434910</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3286874710802615</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3026832949226394</v>
+        <v>0.3020990970803863</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3546612711006094</v>
+        <v>0.3533848982209016</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -1416,19 +1416,19 @@
         <v>130346</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110594</v>
+        <v>109933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>153842</v>
+        <v>154028</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1842435098980127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1563234389513181</v>
+        <v>0.1553888034965673</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2174545566932808</v>
+        <v>0.2177169788354576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>540</v>
@@ -1437,19 +1437,19 @@
         <v>534862</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>494565</v>
+        <v>495775</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>573777</v>
+        <v>577763</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2759626551918329</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2551715630110454</v>
+        <v>0.2557955880908592</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2960410263582837</v>
+        <v>0.2980974152724934</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>826184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>794218</v>
+        <v>795789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>858187</v>
+        <v>858906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6713125289197386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6453387288993907</v>
+        <v>0.6466151017790984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6973167050773608</v>
+        <v>0.6979009029196137</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>560</v>
@@ -1487,19 +1487,19 @@
         <v>577122</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>553626</v>
+        <v>553440</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>596874</v>
+        <v>597535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8157564901019873</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7825454433067185</v>
+        <v>0.7822830211645428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8436765610486817</v>
+        <v>0.8446111965034331</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1363</v>
@@ -1508,19 +1508,19 @@
         <v>1403305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1364390</v>
+        <v>1360404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1443602</v>
+        <v>1442392</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7240373448081671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7039589736417163</v>
+        <v>0.7019025847275066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7448284369889547</v>
+        <v>0.7442044119091408</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>97093</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80918</v>
+        <v>80486</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>113643</v>
+        <v>114052</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2812137515725456</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2343656763691486</v>
+        <v>0.2331152666947517</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3291484935578814</v>
+        <v>0.3303332604077911</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -1633,19 +1633,19 @@
         <v>84927</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67776</v>
+        <v>68939</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104173</v>
+        <v>103042</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.150318938521775</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1199622869626453</v>
+        <v>0.1220213095467997</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1843838635257943</v>
+        <v>0.1823823731925675</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -1654,19 +1654,19 @@
         <v>182020</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>159854</v>
+        <v>158276</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>206839</v>
+        <v>208553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1999685938213468</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1756174272595302</v>
+        <v>0.1738838155561223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2272357047933029</v>
+        <v>0.2291183749521208</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>248171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>231621</v>
+        <v>231212</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>264346</v>
+        <v>264778</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7187862484274544</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6708515064421183</v>
+        <v>0.6696667395922088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7656343236308512</v>
+        <v>0.7668847333052482</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>454</v>
@@ -1704,19 +1704,19 @@
         <v>480052</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>460806</v>
+        <v>461937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>497203</v>
+        <v>496040</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.849681061478225</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8156161364742057</v>
+        <v>0.8176176268074324</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8800377130373548</v>
+        <v>0.8779786904532003</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>692</v>
@@ -1725,19 +1725,19 @@
         <v>728222</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>703403</v>
+        <v>701689</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>750388</v>
+        <v>751966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8000314061786532</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7727642952066971</v>
+        <v>0.770881625047879</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8243825727404698</v>
+        <v>0.8261161844438777</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>233271</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>219214</v>
+        <v>219770</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>246538</v>
+        <v>245943</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.788332137561632</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7408242695046304</v>
+        <v>0.7427043756909413</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8331649196146629</v>
+        <v>0.8311567471408692</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>483</v>
@@ -1850,19 +1850,19 @@
         <v>485113</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>452192</v>
+        <v>452043</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>519167</v>
+        <v>519141</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3916589379544567</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3650793464750071</v>
+        <v>0.3649595669432127</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4191525302118287</v>
+        <v>0.4191313137619587</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>726</v>
@@ -1871,19 +1871,19 @@
         <v>718385</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>679454</v>
+        <v>679085</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>754605</v>
+        <v>757303</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4681504835221042</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4427802946793538</v>
+        <v>0.4425398217794706</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4917538396251412</v>
+        <v>0.4935120117193763</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>62634</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49367</v>
+        <v>49962</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>76691</v>
+        <v>76135</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.211667862438368</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1668350803853371</v>
+        <v>0.168843252859131</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2591757304953696</v>
+        <v>0.2572956243090591</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>745</v>
@@ -1921,19 +1921,19 @@
         <v>753499</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>719445</v>
+        <v>719471</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>786420</v>
+        <v>786569</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6083410620455434</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5808474697881713</v>
+        <v>0.5808686862380412</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6349206535249929</v>
+        <v>0.6350404330567871</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>806</v>
@@ -1942,19 +1942,19 @@
         <v>816132</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>779912</v>
+        <v>777214</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>855063</v>
+        <v>855432</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5318495164778958</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5082461603748588</v>
+        <v>0.5064879882806237</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.557219705320646</v>
+        <v>0.5574601782205292</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1252966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1197949</v>
+        <v>1194565</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1314053</v>
+        <v>1308185</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.387098079576761</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3701007874124985</v>
+        <v>0.3690552256717158</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.405970760525767</v>
+        <v>0.40415780849302</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1029</v>
@@ -2067,19 +2067,19 @@
         <v>1048142</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>993981</v>
+        <v>994961</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1097775</v>
+        <v>1099405</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3126808527480273</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2965236659290225</v>
+        <v>0.2968159567423257</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3274875503390713</v>
+        <v>0.3279737200737917</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2286</v>
@@ -2088,19 +2088,19 @@
         <v>2301108</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2229650</v>
+        <v>2226771</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2376233</v>
+        <v>2374203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3492383776635263</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3383932952724042</v>
+        <v>0.3379563101160823</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3606401904911217</v>
+        <v>0.3603319863435041</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1983852</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1922765</v>
+        <v>1928633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2038869</v>
+        <v>2042253</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6129019204232391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5940292394742329</v>
+        <v>0.5958421915069801</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6298992125875015</v>
+        <v>0.6309447743282842</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2242</v>
@@ -2138,19 +2138,19 @@
         <v>2303971</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2254338</v>
+        <v>2252708</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2358132</v>
+        <v>2357152</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6873191472519727</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6725124496609287</v>
+        <v>0.6720262799262082</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7034763340709775</v>
+        <v>0.7031840432576741</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4159</v>
@@ -2159,19 +2159,19 @@
         <v>4287823</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4212698</v>
+        <v>4214728</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4359281</v>
+        <v>4362160</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6507616223364736</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6393598095088784</v>
+        <v>0.6396680136564961</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6616067047275959</v>
+        <v>0.6620436898839179</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>141915</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120852</v>
+        <v>118699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163140</v>
+        <v>162398</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3253469298893704</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2770594458743456</v>
+        <v>0.272122692172745</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3740042816618546</v>
+        <v>0.3723043963934458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -2526,19 +2526,19 @@
         <v>94686</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77976</v>
+        <v>76857</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113621</v>
+        <v>114451</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.302119702577783</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2488010757655593</v>
+        <v>0.2452294064408562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3625334930090103</v>
+        <v>0.3651820709535694</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>210</v>
@@ -2547,19 +2547,19 @@
         <v>236602</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>207906</v>
+        <v>208217</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>262865</v>
+        <v>263333</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3156356967729934</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2773543959510217</v>
+        <v>0.2777696895110294</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.350672052294165</v>
+        <v>0.3512962814863409</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>294282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273057</v>
+        <v>273799</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315345</v>
+        <v>317498</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6746530701106296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6259957183381457</v>
+        <v>0.6276956036065544</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7229405541256546</v>
+        <v>0.7278773078272551</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>200</v>
@@ -2597,19 +2597,19 @@
         <v>218721</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199786</v>
+        <v>198956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>235431</v>
+        <v>236550</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.697880297422217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6374665069909896</v>
+        <v>0.6348179290464305</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7511989242344407</v>
+        <v>0.7547705935591439</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>475</v>
@@ -2618,19 +2618,19 @@
         <v>513002</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>486739</v>
+        <v>486271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>541698</v>
+        <v>541387</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6843643032270066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6493279477058349</v>
+        <v>0.6487037185136592</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7226456040489784</v>
+        <v>0.7222303104889707</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>165603</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>144641</v>
+        <v>144023</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>187997</v>
+        <v>189488</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3993217019844622</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3487766037805285</v>
+        <v>0.3472859717907502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4533210194170712</v>
+        <v>0.4569163360100679</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>105</v>
@@ -2743,19 +2743,19 @@
         <v>111332</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92642</v>
+        <v>92627</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128316</v>
+        <v>129521</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3342471636758981</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2781353090447842</v>
+        <v>0.2780907293741731</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3852372387744174</v>
+        <v>0.3888562254228696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -2764,19 +2764,19 @@
         <v>276934</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>251006</v>
+        <v>251220</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>304994</v>
+        <v>309964</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3703361905002409</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3356627113647064</v>
+        <v>0.3359489510785716</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4078593610098965</v>
+        <v>0.4145050862707864</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>249107</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>226713</v>
+        <v>225222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>270069</v>
+        <v>270687</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6006782980155378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5466789805829289</v>
+        <v>0.543083663989932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6512233962194715</v>
+        <v>0.6527140282092497</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>196</v>
@@ -2814,19 +2814,19 @@
         <v>221750</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>204766</v>
+        <v>203561</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>240440</v>
+        <v>240455</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6657528363241019</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6147627612255828</v>
+        <v>0.6111437745771301</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7218646909552158</v>
+        <v>0.7219092706258269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>422</v>
@@ -2835,19 +2835,19 @@
         <v>470858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>442798</v>
+        <v>437828</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>496786</v>
+        <v>496572</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6296638094997591</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5921406389901035</v>
+        <v>0.5854949137292138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6643372886352936</v>
+        <v>0.6640510489214285</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>137544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116156</v>
+        <v>116587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160803</v>
+        <v>162646</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2202374633599909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1859914341895324</v>
+        <v>0.1866806011525186</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2574797415340431</v>
+        <v>0.2604309258598022</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -2960,19 +2960,19 @@
         <v>63539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49184</v>
+        <v>49869</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77577</v>
+        <v>78356</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2452028147324427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1898050452397393</v>
+        <v>0.1924511478341004</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2993782801170653</v>
+        <v>0.3023833635050658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -2981,19 +2981,19 @@
         <v>201083</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>172704</v>
+        <v>174711</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>226793</v>
+        <v>228268</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2275584500321594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.195443198631758</v>
+        <v>0.1977139573994484</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.256653444151354</v>
+        <v>0.2583232807379812</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>486982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>463723</v>
+        <v>461880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>508370</v>
+        <v>507939</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7797625366400092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7425202584659569</v>
+        <v>0.7395690741401977</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8140085658104675</v>
+        <v>0.8133193988474814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>182</v>
@@ -3031,19 +3031,19 @@
         <v>195589</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>181551</v>
+        <v>180772</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>209944</v>
+        <v>209259</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7547971852675573</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7006217198829346</v>
+        <v>0.6976166364949341</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8101949547602607</v>
+        <v>0.8075488521658994</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>648</v>
@@ -3052,19 +3052,19 @@
         <v>682571</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>656861</v>
+        <v>655386</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>710950</v>
+        <v>708943</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7724415499678405</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.743346555848646</v>
+        <v>0.7416767192620187</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.804556801368242</v>
+        <v>0.8022860426005517</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>322726</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>293189</v>
+        <v>291510</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>353820</v>
+        <v>352401</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2799298806537359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2543094966141989</v>
+        <v>0.2528531688465002</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3069004240368677</v>
+        <v>0.3056691949613591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -3177,19 +3177,19 @@
         <v>125994</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105185</v>
+        <v>104909</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>147590</v>
+        <v>147583</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1656599319201354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1382990569005356</v>
+        <v>0.137936890355649</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1940551194957002</v>
+        <v>0.1940451515272364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>417</v>
@@ -3198,19 +3198,19 @@
         <v>448720</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>409237</v>
+        <v>411190</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>484308</v>
+        <v>487289</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2345095997936198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2138747927659476</v>
+        <v>0.2148953171365975</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2531084868984009</v>
+        <v>0.2546664632749292</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>830156</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>799062</v>
+        <v>800481</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>859693</v>
+        <v>861372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7200701193462641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6930995759631321</v>
+        <v>0.6943308050386409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.745690503385801</v>
+        <v>0.7471468311534998</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>592</v>
@@ -3248,19 +3248,19 @@
         <v>634565</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>612969</v>
+        <v>612976</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>655374</v>
+        <v>655650</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8343400680798646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8059448805042999</v>
+        <v>0.8059548484727637</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8617009430994644</v>
+        <v>0.8620631096443511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1365</v>
@@ -3269,19 +3269,19 @@
         <v>1464721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1429133</v>
+        <v>1426152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1504204</v>
+        <v>1502251</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7654904002063802</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7468915131015991</v>
+        <v>0.74533353672507</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7861252072340523</v>
+        <v>0.785104682863402</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>134349</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114943</v>
+        <v>117040</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154648</v>
+        <v>156512</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2666348856640776</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2281209735952104</v>
+        <v>0.2322825054296263</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.306920066602967</v>
+        <v>0.3106210624204276</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>171</v>
@@ -3394,19 +3394,19 @@
         <v>184323</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>161798</v>
+        <v>159843</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>209789</v>
+        <v>210209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2440133207345333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2141930471720261</v>
+        <v>0.2116060186771902</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2777252937060682</v>
+        <v>0.2782812499637686</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>302</v>
@@ -3415,19 +3415,19 @@
         <v>318672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>287083</v>
+        <v>286686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>349548</v>
+        <v>353174</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2530649813810503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2279789237756647</v>
+        <v>0.2276640150038124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.27758413035817</v>
+        <v>0.2804634909760942</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>369520</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>349221</v>
+        <v>347357</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>388926</v>
+        <v>386829</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7333651143359224</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6930799333970329</v>
+        <v>0.6893789375795722</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7718790264047896</v>
+        <v>0.7677174945703736</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>526</v>
@@ -3465,19 +3465,19 @@
         <v>571059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>545593</v>
+        <v>545173</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>593584</v>
+        <v>595539</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7559866792654667</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7222747062939318</v>
+        <v>0.7217187500362311</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.785806952827974</v>
+        <v>0.7883939813228095</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>876</v>
@@ -3486,19 +3486,19 @@
         <v>940579</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>909703</v>
+        <v>906077</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>972168</v>
+        <v>972565</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7469350186189496</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7224158696418299</v>
+        <v>0.7195365090239059</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7720210762243352</v>
+        <v>0.7723359849961876</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>169316</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>154027</v>
+        <v>153279</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>184170</v>
+        <v>185520</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6365618566455733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5790803308539839</v>
+        <v>0.5762698287590972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6924058797090162</v>
+        <v>0.6974837930538889</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>429</v>
@@ -3611,19 +3611,19 @@
         <v>455556</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>418860</v>
+        <v>421547</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>489644</v>
+        <v>488725</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4130825734578767</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3798082357993898</v>
+        <v>0.3822447674788036</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.443992478166328</v>
+        <v>0.4431590419704891</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>597</v>
@@ -3632,19 +3632,19 @@
         <v>624872</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>586692</v>
+        <v>588376</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>660163</v>
+        <v>660995</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4565088869220942</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4286160591219659</v>
+        <v>0.42984662983885</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4822912665434231</v>
+        <v>0.4828990310369634</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>96669</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81815</v>
+        <v>80465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111958</v>
+        <v>112706</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3634381433544267</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3075941202909838</v>
+        <v>0.3025162069461113</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.420919669146016</v>
+        <v>0.4237301712409028</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>609</v>
@@ -3682,19 +3682,19 @@
         <v>647264</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>613176</v>
+        <v>614095</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>683960</v>
+        <v>681273</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5869174265421233</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.556007521833672</v>
+        <v>0.5568409580295111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6201917642006102</v>
+        <v>0.6177552325211966</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>705</v>
@@ -3703,19 +3703,19 @@
         <v>743933</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>708642</v>
+        <v>707810</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>782113</v>
+        <v>780429</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5434911130779058</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5177087334565765</v>
+        <v>0.5171009689630364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5713839408780339</v>
+        <v>0.57015337016115</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1071453</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1014742</v>
+        <v>1013996</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1126028</v>
+        <v>1121929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3153030848506552</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2986143562781441</v>
+        <v>0.2983948726426327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3313632815600729</v>
+        <v>0.3301569754587069</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>961</v>
@@ -3828,19 +3828,19 @@
         <v>1035430</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>983777</v>
+        <v>976295</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1094308</v>
+        <v>1091817</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2937909019912719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2791351007259331</v>
+        <v>0.2770121422875192</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3104969872102117</v>
+        <v>0.3097902176950755</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1957</v>
@@ -3849,19 +3849,19 @@
         <v>2106883</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2024020</v>
+        <v>2025890</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2187014</v>
+        <v>2188503</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3043508952128725</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2923809230202151</v>
+        <v>0.2926510393330923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.315926251620344</v>
+        <v>0.3161413757905352</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2326716</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2272141</v>
+        <v>2276240</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2383427</v>
+        <v>2384173</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6846969151493448</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.668636718439927</v>
+        <v>0.669843024541293</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.701385643721856</v>
+        <v>0.7016051273573672</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2305</v>
@@ -3899,19 +3899,19 @@
         <v>2488946</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2430068</v>
+        <v>2432559</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2540599</v>
+        <v>2548081</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7062090980087281</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6895030127897882</v>
+        <v>0.6902097823049245</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7208648992740668</v>
+        <v>0.7229878577124806</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4491</v>
@@ -3920,19 +3920,19 @@
         <v>4815662</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4735531</v>
+        <v>4734042</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4898525</v>
+        <v>4896655</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6956491047871275</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6840737483796561</v>
+        <v>0.6838586242094649</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7076190769797848</v>
+        <v>0.7073489606669078</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>192812</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>171415</v>
+        <v>170463</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>213473</v>
+        <v>213451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4514348725264327</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4013383801717779</v>
+        <v>0.3991088063351114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4998084748669104</v>
+        <v>0.4997584272044762</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -4287,19 +4287,19 @@
         <v>104501</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90348</v>
+        <v>86712</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124879</v>
+        <v>122074</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3048997855479231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2636069508358667</v>
+        <v>0.2529970484026424</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3643556853100385</v>
+        <v>0.3561717607152786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>273</v>
@@ -4308,19 +4308,19 @@
         <v>297313</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>268770</v>
+        <v>270016</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>325677</v>
+        <v>326180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3861968808963301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3491207346884254</v>
+        <v>0.3507397536819166</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4230400978120177</v>
+        <v>0.4236936707203057</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>234297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>213636</v>
+        <v>213658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>255694</v>
+        <v>256646</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5485651274735673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5001915251330895</v>
+        <v>0.5002415727955237</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5986616198282221</v>
+        <v>0.6008911936648886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -4358,19 +4358,19 @@
         <v>238238</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217860</v>
+        <v>220665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>252391</v>
+        <v>256027</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6951002144520768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6356443146899615</v>
+        <v>0.6438282392847212</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7363930491641334</v>
+        <v>0.7470029515973575</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>449</v>
@@ -4379,19 +4379,19 @@
         <v>472535</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>444171</v>
+        <v>443668</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>501078</v>
+        <v>499832</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6138031191036699</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5769599021879823</v>
+        <v>0.5763063292796943</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6508792653115747</v>
+        <v>0.6492602463180833</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>179062</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159322</v>
+        <v>159988</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>198818</v>
+        <v>198355</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4807728449632566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4277712580605771</v>
+        <v>0.4295582377311901</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5338165490686805</v>
+        <v>0.5325718066994426</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -4504,19 +4504,19 @@
         <v>145252</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125523</v>
+        <v>125964</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>165882</v>
+        <v>165952</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3911631629103833</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3380331161073157</v>
+        <v>0.3392222423919378</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4467213693775325</v>
+        <v>0.4469097192885083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>309</v>
@@ -4525,19 +4525,19 @@
         <v>324315</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>296649</v>
+        <v>299109</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>352462</v>
+        <v>355762</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4360350951543662</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3988389005351367</v>
+        <v>0.4021467808217409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4738783494753755</v>
+        <v>0.4783153491861776</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>193385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>173629</v>
+        <v>174092</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>213125</v>
+        <v>212459</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5192271550367434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4661834509313196</v>
+        <v>0.4674281933005576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5722287419394229</v>
+        <v>0.57044176226881</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>213</v>
@@ -4575,19 +4575,19 @@
         <v>226081</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>205451</v>
+        <v>205381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>245810</v>
+        <v>245369</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6088368370896167</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5532786306224675</v>
+        <v>0.5530902807114917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6619668838926843</v>
+        <v>0.6607777576080621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>392</v>
@@ -4596,19 +4596,19 @@
         <v>419466</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>391319</v>
+        <v>388019</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>447132</v>
+        <v>444672</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5639649048456338</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5261216505246247</v>
+        <v>0.5216846508138222</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6011610994648634</v>
+        <v>0.5978532191782591</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>148140</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127416</v>
+        <v>127152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>170129</v>
+        <v>169049</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2880811142444235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2477800565871743</v>
+        <v>0.2472672474145381</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3308427941278836</v>
+        <v>0.3287430480683847</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -4721,19 +4721,19 @@
         <v>51700</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40707</v>
+        <v>39246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65751</v>
+        <v>66084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3150713743214036</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2480764544551811</v>
+        <v>0.2391731739793756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4006958964240048</v>
+        <v>0.4027272560224261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>188</v>
@@ -4742,19 +4742,19 @@
         <v>199840</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177585</v>
+        <v>174903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>225931</v>
+        <v>222195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2946102766356339</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2618014490305514</v>
+        <v>0.2578465894457597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3330737589155324</v>
+        <v>0.3275663391131408</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>366089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>344100</v>
+        <v>345180</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>386813</v>
+        <v>387077</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7119188857555765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6691572058721165</v>
+        <v>0.6712569519316153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7522199434128258</v>
+        <v>0.7527327525854619</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>108</v>
@@ -4792,19 +4792,19 @@
         <v>112391</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>98340</v>
+        <v>98007</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>123384</v>
+        <v>124845</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6849286256785964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.599304103575995</v>
+        <v>0.5972727439775739</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7519235455448188</v>
+        <v>0.7608268260206243</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>458</v>
@@ -4813,19 +4813,19 @@
         <v>478481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>452390</v>
+        <v>456126</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>500736</v>
+        <v>503418</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7053897233643661</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6669262410844674</v>
+        <v>0.6724336608868591</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7381985509694484</v>
+        <v>0.7421534105542402</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>371699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>343186</v>
+        <v>342628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>403887</v>
+        <v>405850</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3243216605428091</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2994431562830671</v>
+        <v>0.2989557549995979</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3524066418159848</v>
+        <v>0.3541192292692667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -4938,19 +4938,19 @@
         <v>165075</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>141418</v>
+        <v>141343</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>190268</v>
+        <v>188628</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2006671627113941</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1719094086135542</v>
+        <v>0.1718184610648228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2312926458271826</v>
+        <v>0.2292992873274198</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>516</v>
@@ -4959,19 +4959,19 @@
         <v>536774</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>496261</v>
+        <v>499679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>576465</v>
+        <v>578787</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2726524303892812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2520740764269315</v>
+        <v>0.2538098852597605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2928130324952568</v>
+        <v>0.2939927187403458</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>774383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>742195</v>
+        <v>740232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>802896</v>
+        <v>803454</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6756783394571909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6475933581840151</v>
+        <v>0.6458807707307336</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7005568437169326</v>
+        <v>0.7010442450004023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>641</v>
@@ -5009,19 +5009,19 @@
         <v>657554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>632361</v>
+        <v>634001</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>681211</v>
+        <v>681286</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7993328372886059</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7687073541728173</v>
+        <v>0.7707007126725801</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8280905913864457</v>
+        <v>0.8281815389351771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1379</v>
@@ -5030,19 +5030,19 @@
         <v>1431938</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1392247</v>
+        <v>1389925</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1472451</v>
+        <v>1469033</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7273475696107188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7071869675047433</v>
+        <v>0.7060072812596547</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7479259235730685</v>
+        <v>0.7461901147402396</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>196665</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>172025</v>
+        <v>175425</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>220078</v>
+        <v>220921</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3200632614705176</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.279961597965306</v>
+        <v>0.2854959998034974</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3581660207109781</v>
+        <v>0.3595382588327637</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -5155,19 +5155,19 @@
         <v>178949</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>153259</v>
+        <v>153751</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>201508</v>
+        <v>204005</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.24376557417513</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2087701715998895</v>
+        <v>0.2094400990599547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2744957371355901</v>
+        <v>0.2778970958041333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>359</v>
@@ -5176,19 +5176,19 @@
         <v>375614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>343450</v>
+        <v>345953</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>411505</v>
+        <v>414596</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2785298276997401</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2546788952374063</v>
+        <v>0.2565354172381264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3051438027068485</v>
+        <v>0.3074358957110173</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>417793</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>394380</v>
+        <v>393537</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>442433</v>
+        <v>439033</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6799367385294824</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6418339792890219</v>
+        <v>0.6404617411672363</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7200384020346942</v>
+        <v>0.7145040001965026</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>534</v>
@@ -5226,19 +5226,19 @@
         <v>555154</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>532595</v>
+        <v>530098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>580844</v>
+        <v>580352</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.75623442582487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7255042628644099</v>
+        <v>0.7221029041958668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7912298284001105</v>
+        <v>0.7905599009400452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>927</v>
@@ -5247,19 +5247,19 @@
         <v>972946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>937055</v>
+        <v>933964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1005110</v>
+        <v>1002607</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7214701723002599</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6948561972931516</v>
+        <v>0.6925641042889829</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7453211047625937</v>
+        <v>0.7434645827618739</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>139619</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122346</v>
+        <v>121240</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155930</v>
+        <v>156569</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4896632328768363</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4290846830258209</v>
+        <v>0.4252054196433284</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5468689060116285</v>
+        <v>0.5491103640676109</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>404</v>
@@ -5372,19 +5372,19 @@
         <v>455079</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>422812</v>
+        <v>422595</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>489510</v>
+        <v>488897</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4210457020876356</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3911918479850757</v>
+        <v>0.3909911873948705</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4529018006321657</v>
+        <v>0.4523343944580855</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>534</v>
@@ -5393,19 +5393,19 @@
         <v>594698</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>555626</v>
+        <v>556435</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>630003</v>
+        <v>633248</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4353689595772736</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4067651823502623</v>
+        <v>0.4073569714950044</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4612150768118615</v>
+        <v>0.4635907114749354</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>145513</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>129202</v>
+        <v>128563</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162786</v>
+        <v>163892</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5103367671231637</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4531310939883707</v>
+        <v>0.450889635932389</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5709153169741787</v>
+        <v>0.5747945803566716</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>587</v>
@@ -5443,19 +5443,19 @@
         <v>625752</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>591321</v>
+        <v>591934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>658019</v>
+        <v>658236</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5789542979123644</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5470981993678343</v>
+        <v>0.5476656055419145</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6088081520149243</v>
+        <v>0.6090088126051295</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>727</v>
@@ -5464,19 +5464,19 @@
         <v>771265</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>735960</v>
+        <v>732715</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>810337</v>
+        <v>809528</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5646310404227264</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5387849231881385</v>
+        <v>0.5364092885250645</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5932348176497377</v>
+        <v>0.5926430285049956</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1227997</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1170931</v>
+        <v>1169375</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1286259</v>
+        <v>1282607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3655344281920129</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3485477869307166</v>
+        <v>0.3480844273343808</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3828771052790574</v>
+        <v>0.3817898544268557</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>996</v>
@@ -5589,19 +5589,19 @@
         <v>1100556</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1045367</v>
+        <v>1044641</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1156332</v>
+        <v>1159846</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3130380828696126</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2973400690455529</v>
+        <v>0.2971336019342968</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3289026700556507</v>
+        <v>0.3299020947402024</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2179</v>
@@ -5610,19 +5610,19 @@
         <v>2328554</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2245853</v>
+        <v>2249911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2411552</v>
+        <v>2410424</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3386896455741497</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3266608525262661</v>
+        <v>0.327250951835319</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3507618273847695</v>
+        <v>0.3505977908391765</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2131460</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2073198</v>
+        <v>2076850</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2188526</v>
+        <v>2190082</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.634465571807987</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6171228947209425</v>
+        <v>0.6182101455731444</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6514522130692834</v>
+        <v>0.6519155726656192</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2315</v>
@@ -5660,19 +5660,19 @@
         <v>2415171</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2359395</v>
+        <v>2355881</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2470360</v>
+        <v>2471086</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6869619171303873</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6710973299443493</v>
+        <v>0.6700979052597976</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7026599309544471</v>
+        <v>0.7028663980657032</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4332</v>
@@ -5681,19 +5681,19 @@
         <v>4546630</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4463632</v>
+        <v>4464760</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4629331</v>
+        <v>4625273</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6613103544258503</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6492381726152305</v>
+        <v>0.6494022091608237</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6733391474737339</v>
+        <v>0.6727490481646811</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>267773</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>245279</v>
+        <v>243289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>292853</v>
+        <v>290504</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4875744149203298</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4466168404487</v>
+        <v>0.4429935881677252</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5332405883808313</v>
+        <v>0.5289637757284353</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>275</v>
@@ -6048,19 +6048,19 @@
         <v>199884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>180382</v>
+        <v>180774</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>217845</v>
+        <v>218011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4098065592410073</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3698233009473233</v>
+        <v>0.3706283730396249</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4466325073017238</v>
+        <v>0.4469717839535987</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>542</v>
@@ -6069,19 +6069,19 @@
         <v>467657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>436498</v>
+        <v>436567</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>497687</v>
+        <v>501284</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4509945093273122</v>
+        <v>0.4509945093273121</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.420945923891286</v>
+        <v>0.4210125948701542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4799553152356734</v>
+        <v>0.4834238853785969</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>281421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256341</v>
+        <v>258690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>303915</v>
+        <v>305905</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5124255850796701</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4667594116191686</v>
+        <v>0.4710362242715647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5533831595512999</v>
+        <v>0.5570064118322747</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>410</v>
@@ -6119,19 +6119,19 @@
         <v>287867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269906</v>
+        <v>269740</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307369</v>
+        <v>306977</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5901934407589928</v>
+        <v>0.5901934407589927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5533674926982761</v>
+        <v>0.5530282160464015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6301766990526768</v>
+        <v>0.6293716269603753</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>696</v>
@@ -6140,19 +6140,19 @@
         <v>569288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>539258</v>
+        <v>535661</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>600447</v>
+        <v>600378</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5490054906726879</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5200446847643263</v>
+        <v>0.5165761146214032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5790540761087141</v>
+        <v>0.5789874051298458</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>236767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214688</v>
+        <v>212856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>260044</v>
+        <v>261875</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4936021256670016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4475726211947547</v>
+        <v>0.4437543801113912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5421305499083551</v>
+        <v>0.5459471986227117</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>298</v>
@@ -6265,19 +6265,19 @@
         <v>216442</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>200030</v>
+        <v>198638</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>234046</v>
+        <v>234580</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5140478575336469</v>
+        <v>0.514047857533647</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4750695185011822</v>
+        <v>0.4717627840158714</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5558557138767949</v>
+        <v>0.5571247219923863</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>534</v>
@@ -6286,19 +6286,19 @@
         <v>453210</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>422951</v>
+        <v>424145</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>484471</v>
+        <v>479780</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5031597224631946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4695667634867636</v>
+        <v>0.4708923725207552</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5378671727922774</v>
+        <v>0.5326590976602928</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>242904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>219627</v>
+        <v>217796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>264983</v>
+        <v>266815</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5063978743329984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.457869450091645</v>
+        <v>0.4540528013772883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.552427378805245</v>
+        <v>0.5562456198886089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>289</v>
@@ -6336,19 +6336,19 @@
         <v>204613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>187009</v>
+        <v>186475</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>221025</v>
+        <v>222417</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4859521424663531</v>
+        <v>0.4859521424663532</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4441442861232052</v>
+        <v>0.4428752780076137</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5249304814988183</v>
+        <v>0.5282372159841288</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>531</v>
@@ -6357,19 +6357,19 @@
         <v>447517</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>416256</v>
+        <v>420947</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>477776</v>
+        <v>476582</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4968402775368054</v>
+        <v>0.4968402775368053</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4621328272077226</v>
+        <v>0.467340902339707</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5304332365132364</v>
+        <v>0.5291076274792443</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>118266</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99804</v>
+        <v>100972</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137244</v>
+        <v>137816</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2513451457392964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.212109869496215</v>
+        <v>0.2145917683453367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2916782278378564</v>
+        <v>0.2928943478483879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -6482,19 +6482,19 @@
         <v>58658</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48828</v>
+        <v>49077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68665</v>
+        <v>69999</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.315338609630216</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2624950127279261</v>
+        <v>0.263835321205331</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3691358691034058</v>
+        <v>0.3763105723605365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>222</v>
@@ -6503,19 +6503,19 @@
         <v>176923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>155819</v>
+        <v>156003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199098</v>
+        <v>200878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2694760233421819</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2373317242506556</v>
+        <v>0.2376119756723612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3032504764314245</v>
+        <v>0.305962038569441</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>352265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>333287</v>
+        <v>332715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>370727</v>
+        <v>369559</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7486548542607037</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7083217721621436</v>
+        <v>0.7071056521516121</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.787890130503785</v>
+        <v>0.7854082316546632</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>196</v>
@@ -6553,19 +6553,19 @@
         <v>127357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>117350</v>
+        <v>116016</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>137187</v>
+        <v>136938</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6846613903697839</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6308641308965943</v>
+        <v>0.6236894276394636</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7375049872720739</v>
+        <v>0.7361646787946688</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>552</v>
@@ -6574,19 +6574,19 @@
         <v>479623</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>457448</v>
+        <v>455668</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>500727</v>
+        <v>500543</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7305239766578182</v>
+        <v>0.7305239766578183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6967495235685753</v>
+        <v>0.6940379614305587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7626682757493443</v>
+        <v>0.7623880243276387</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>347037</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>317461</v>
+        <v>316638</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>382624</v>
+        <v>378825</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3107936211134107</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2843061605178854</v>
+        <v>0.2835697553406691</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3426638385355622</v>
+        <v>0.3392617856755195</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>272</v>
@@ -6699,19 +6699,19 @@
         <v>178441</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158385</v>
+        <v>158368</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>200140</v>
+        <v>199511</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2083653917904833</v>
+        <v>0.2083653917904834</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1849457957870272</v>
+        <v>0.1849260828178247</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2337032518287219</v>
+        <v>0.2329692883901025</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>643</v>
@@ -6720,19 +6720,19 @@
         <v>525478</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>486396</v>
+        <v>488164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>566716</v>
+        <v>567026</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2663344624964051</v>
+        <v>0.266334462496405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2465263216277861</v>
+        <v>0.2474224210101056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2872360039343771</v>
+        <v>0.2873928737230819</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>769578</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>733991</v>
+        <v>737790</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>799154</v>
+        <v>799977</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6892063788865893</v>
+        <v>0.6892063788865892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6573361614644377</v>
+        <v>0.6607382143244807</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7156938394821145</v>
+        <v>0.7164302446593309</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>953</v>
@@ -6770,19 +6770,19 @@
         <v>677943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>656244</v>
+        <v>656873</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>697999</v>
+        <v>698016</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7916346082095166</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7662967481712778</v>
+        <v>0.7670307116098974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8150542042129725</v>
+        <v>0.8150739171821751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1692</v>
@@ -6791,19 +6791,19 @@
         <v>1447521</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1406283</v>
+        <v>1405973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1486603</v>
+        <v>1484835</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.733665537503595</v>
+        <v>0.7336655375035949</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7127639960656229</v>
+        <v>0.7126071262769181</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7534736783722138</v>
+        <v>0.7525775789898943</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>134205</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114821</v>
+        <v>116951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>155325</v>
+        <v>157843</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2373239159344813</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2030464081547861</v>
+        <v>0.2068120550730017</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2746729138088683</v>
+        <v>0.2791241963752802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>385</v>
@@ -6916,19 +6916,19 @@
         <v>218246</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>197926</v>
+        <v>197734</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>239035</v>
+        <v>236936</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2639230807879382</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2393506132276267</v>
+        <v>0.2391176174418633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2890624967903475</v>
+        <v>0.2865247485552378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>541</v>
@@ -6937,19 +6937,19 @@
         <v>352451</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>325334</v>
+        <v>327609</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>387410</v>
+        <v>385128</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2531206031721912</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2336458026015344</v>
+        <v>0.2352796687603787</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2782275016777866</v>
+        <v>0.276588636544206</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>431287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>410167</v>
+        <v>407649</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>450671</v>
+        <v>448541</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7626760840655186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7253270861911318</v>
+        <v>0.7208758036247198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7969535918452143</v>
+        <v>0.7931879449269983</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>899</v>
@@ -6987,19 +6987,19 @@
         <v>608685</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>587896</v>
+        <v>589995</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>629005</v>
+        <v>629197</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7360769192120619</v>
+        <v>0.7360769192120618</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7109375032096523</v>
+        <v>0.7134752514447621</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7606493867723733</v>
+        <v>0.7608823825581368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1288</v>
@@ -7008,19 +7008,19 @@
         <v>1039972</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1005013</v>
+        <v>1007295</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1067089</v>
+        <v>1064814</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7468793968278088</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7217724983222134</v>
+        <v>0.7234113634557939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7663541973984654</v>
+        <v>0.7647203312396212</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>95490</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71328</v>
+        <v>72931</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119043</v>
+        <v>118178</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4092887920600943</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3057275197362876</v>
+        <v>0.3125956518975341</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5102415999727874</v>
+        <v>0.5065322780950454</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>497</v>
@@ -7133,19 +7133,19 @@
         <v>371701</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>344212</v>
+        <v>346406</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>400487</v>
+        <v>403162</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4445925388805252</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4117132015621828</v>
+        <v>0.4143366665493988</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4790235673921929</v>
+        <v>0.4822229542015632</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>547</v>
@@ -7154,19 +7154,19 @@
         <v>467191</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>429472</v>
+        <v>432737</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>503524</v>
+        <v>501241</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4368901314727965</v>
+        <v>0.4368901314727964</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4016177031965236</v>
+        <v>0.4046710635993319</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4708663922756263</v>
+        <v>0.4687320935897839</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>137817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114264</v>
+        <v>115129</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161979</v>
+        <v>160376</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5907112079399059</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4897584000272132</v>
+        <v>0.4934677219049544</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6942724802637125</v>
+        <v>0.6874043481024659</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>653</v>
@@ -7204,19 +7204,19 @@
         <v>464348</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>435562</v>
+        <v>432887</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>491837</v>
+        <v>489643</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5554074611194749</v>
+        <v>0.5554074611194748</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5209764326078069</v>
+        <v>0.5177770457984369</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5882867984378172</v>
+        <v>0.5856633334506013</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>713</v>
@@ -7225,19 +7225,19 @@
         <v>602165</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>565832</v>
+        <v>568115</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>639884</v>
+        <v>636619</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5631098685272036</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5291336077243737</v>
+        <v>0.5312679064102162</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5983822968034765</v>
+        <v>0.5953289364006678</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1199537</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1139582</v>
+        <v>1138424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1261002</v>
+        <v>1258361</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3512748290841666</v>
+        <v>0.3512748290841665</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3337173469164384</v>
+        <v>0.3333782447143839</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.369274390909936</v>
+        <v>0.3685010264582644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1818</v>
@@ -7350,19 +7350,19 @@
         <v>1243372</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1191012</v>
+        <v>1196799</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1294541</v>
+        <v>1294242</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3440255120124252</v>
+        <v>0.3440255120124251</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3295381299311531</v>
+        <v>0.3311394719342297</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3581832585084255</v>
+        <v>0.358100772870335</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3029</v>
@@ -7371,19 +7371,19 @@
         <v>2442909</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2365398</v>
+        <v>2369138</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2519239</v>
+        <v>2525885</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3475473587903989</v>
+        <v>0.347547358790399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.336519939621881</v>
+        <v>0.3370520875933569</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3584065893899474</v>
+        <v>0.3593520727466925</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2215274</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2153809</v>
+        <v>2156450</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2275229</v>
+        <v>2276387</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6487251709158336</v>
+        <v>0.6487251709158335</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6307256090900638</v>
+        <v>0.6314989735417356</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6662826530835614</v>
+        <v>0.6666217552856163</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3400</v>
@@ -7421,19 +7421,19 @@
         <v>2370813</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2319644</v>
+        <v>2319943</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2423173</v>
+        <v>2417386</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6559744879875747</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6418167414915743</v>
+        <v>0.641899227129665</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6704618700688469</v>
+        <v>0.6688605280657705</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5472</v>
@@ -7442,19 +7442,19 @@
         <v>4586088</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4509758</v>
+        <v>4503112</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4663599</v>
+        <v>4659859</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.652452641209601</v>
+        <v>0.6524526412096009</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6415934106100526</v>
+        <v>0.6406479272533074</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6634800603781189</v>
+        <v>0.6629479124066431</v>
       </c>
     </row>
     <row r="24">
